--- a/Code/Results/Cases/Case_2_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_68/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.0138877725737</v>
+        <v>15.18689417704505</v>
       </c>
       <c r="C2">
-        <v>18.38523230584709</v>
+        <v>11.25757293631382</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.37673645996112</v>
+        <v>26.22868936680642</v>
       </c>
       <c r="F2">
-        <v>32.80800856382843</v>
+        <v>37.41752663735916</v>
       </c>
       <c r="G2">
-        <v>10.99246012538463</v>
+        <v>17.07343389154736</v>
       </c>
       <c r="H2">
-        <v>5.97512652789981</v>
+        <v>11.48091690534303</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3.821217139589864</v>
+        <v>7.1912830727934</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.403788841353526</v>
+        <v>15.89290304640388</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.39621393558414</v>
+        <v>14.34360736476312</v>
       </c>
       <c r="C3">
-        <v>17.29758639540004</v>
+        <v>10.66888469173825</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.8712040535963</v>
+        <v>25.88623601065564</v>
       </c>
       <c r="F3">
-        <v>31.23542810413045</v>
+        <v>37.25262696296107</v>
       </c>
       <c r="G3">
-        <v>10.91658573025751</v>
+        <v>17.30280405665209</v>
       </c>
       <c r="H3">
-        <v>6.155960277370534</v>
+        <v>11.56110944830529</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.89584641216838</v>
+        <v>7.220656048891803</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.652454482423121</v>
+        <v>16.04406747924275</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.34497410633402</v>
+        <v>13.79850449933102</v>
       </c>
       <c r="C4">
-        <v>16.59490586227713</v>
+        <v>10.2895047978297</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.9130723233541</v>
+        <v>25.67871153912892</v>
       </c>
       <c r="F4">
-        <v>30.26538548614111</v>
+        <v>37.16338758619354</v>
       </c>
       <c r="G4">
-        <v>10.93208594108328</v>
+        <v>17.45608994382393</v>
       </c>
       <c r="H4">
-        <v>6.2738735495886</v>
+        <v>11.61313907350666</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.943398297772021</v>
+        <v>7.239665583287085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.825818348357856</v>
+        <v>16.14271073150358</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.90197865998287</v>
+        <v>13.56964594329898</v>
       </c>
       <c r="C5">
-        <v>16.29990306029277</v>
+        <v>10.13052476259798</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.51445880267406</v>
+        <v>25.59492630203211</v>
       </c>
       <c r="F5">
-        <v>29.86948703689434</v>
+        <v>37.13006756944736</v>
       </c>
       <c r="G5">
-        <v>10.95294324426254</v>
+        <v>17.52164384547619</v>
       </c>
       <c r="H5">
-        <v>6.323562717885359</v>
+        <v>11.6350437222983</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.963209304281295</v>
+        <v>7.247657706113192</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.901204774236563</v>
+        <v>16.18437009530287</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.82753692624366</v>
+        <v>13.53124287543591</v>
       </c>
       <c r="C6">
-        <v>16.250399290285</v>
+        <v>10.10386593520015</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.44778685965722</v>
+        <v>25.58106378570472</v>
       </c>
       <c r="F6">
-        <v>29.80372914343269</v>
+        <v>37.1247194196983</v>
       </c>
       <c r="G6">
-        <v>10.95725035405189</v>
+        <v>17.53271435032903</v>
       </c>
       <c r="H6">
-        <v>6.331910103185358</v>
+        <v>11.6387233910491</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.966525040192792</v>
+        <v>7.248999641189167</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.913996330752546</v>
+        <v>16.19137575602757</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.33905888101449</v>
+        <v>13.79544504566274</v>
       </c>
       <c r="C7">
-        <v>16.5909622215694</v>
+        <v>10.28737828433381</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.907729074828</v>
+        <v>25.6775782914669</v>
       </c>
       <c r="F7">
-        <v>30.26004793137344</v>
+        <v>37.16292585830421</v>
       </c>
       <c r="G7">
-        <v>10.93230989286412</v>
+        <v>17.45696157608901</v>
       </c>
       <c r="H7">
-        <v>6.274537152049923</v>
+        <v>11.61343164383371</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.943663723359776</v>
+        <v>7.239772372750135</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.826816420583587</v>
+        <v>16.14326665208432</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.46812699531088</v>
+        <v>14.90187737512548</v>
       </c>
       <c r="C8">
-        <v>18.01750401913161</v>
+        <v>11.05838213466143</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25.86479317475156</v>
+        <v>26.11009814225543</v>
       </c>
       <c r="F8">
-        <v>32.26700222452196</v>
+        <v>37.35819359917984</v>
       </c>
       <c r="G8">
-        <v>10.95282722573232</v>
+        <v>17.14991052354051</v>
       </c>
       <c r="H8">
-        <v>6.035990453063132</v>
+        <v>11.50798818809961</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3.846589215224221</v>
+        <v>7.201208974205171</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.484942886196947</v>
+        <v>15.94381255953992</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.18514280555344</v>
+        <v>16.84984806042555</v>
       </c>
       <c r="C9">
-        <v>20.53505234001013</v>
+        <v>12.4236519468448</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>29.42510372329491</v>
+        <v>26.97591249488998</v>
       </c>
       <c r="F9">
-        <v>36.14826122643907</v>
+        <v>37.83503916218888</v>
       </c>
       <c r="G9">
-        <v>11.52168561062181</v>
+        <v>16.64853469311452</v>
       </c>
       <c r="H9">
-        <v>5.627720605275764</v>
+        <v>11.32334561968047</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.670062912261978</v>
+        <v>7.133292071125146</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>8.001970022876959</v>
+        <v>15.59910914520982</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.64039869684475</v>
+        <v>18.14082974772012</v>
       </c>
       <c r="C10">
-        <v>22.21151524770342</v>
+        <v>13.3326482195531</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>31.86337422874037</v>
+        <v>27.61725133761335</v>
       </c>
       <c r="F10">
-        <v>38.94757603929611</v>
+        <v>38.24048868110859</v>
       </c>
       <c r="G10">
-        <v>12.32691812347728</v>
+        <v>16.34434477612756</v>
       </c>
       <c r="H10">
-        <v>5.372319004933625</v>
+        <v>11.20116131349252</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.549051728283095</v>
+        <v>7.088055076728181</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.797039767518477</v>
+        <v>15.37442414741553</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.69848684844321</v>
+        <v>18.69699775065682</v>
       </c>
       <c r="C11">
-        <v>22.93645941032193</v>
+        <v>13.72506867989328</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>32.9335116065343</v>
+        <v>27.90898719165797</v>
       </c>
       <c r="F11">
-        <v>40.2074093231122</v>
+        <v>38.43635515409575</v>
       </c>
       <c r="G11">
-        <v>12.88237119036953</v>
+        <v>16.22050853747436</v>
       </c>
       <c r="H11">
-        <v>5.268116080149033</v>
+        <v>11.14849892848347</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.495974198133515</v>
+        <v>7.068480201354355</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.744848378198678</v>
+        <v>15.27847558138573</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.09078813401663</v>
+        <v>18.90309079419274</v>
       </c>
       <c r="C12">
-        <v>23.20556702995212</v>
+        <v>13.87059425215952</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>33.33314881555648</v>
+        <v>28.01936326581394</v>
       </c>
       <c r="F12">
-        <v>40.68243720993339</v>
+        <v>38.51211533628821</v>
       </c>
       <c r="G12">
-        <v>13.10052439821738</v>
+        <v>16.17575814343245</v>
       </c>
       <c r="H12">
-        <v>5.230614469604054</v>
+        <v>11.12897692526754</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.476169175210429</v>
+        <v>7.061211475862541</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.731707266309036</v>
+        <v>15.24304868760294</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.00667002891008</v>
+        <v>18.85890637102642</v>
       </c>
       <c r="C13">
-        <v>23.14785039028664</v>
+        <v>13.83939009151336</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>33.24732816792505</v>
+        <v>27.99559766607008</v>
       </c>
       <c r="F13">
-        <v>40.58022291298797</v>
+        <v>38.49572920283447</v>
       </c>
       <c r="G13">
-        <v>13.05320208552479</v>
+        <v>16.18529975176587</v>
       </c>
       <c r="H13">
-        <v>5.238599908629418</v>
+        <v>11.13316264960053</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.480421249328224</v>
+        <v>7.062770535353713</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.73423153181056</v>
+        <v>15.2506380711799</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.73092902185886</v>
+        <v>18.71404385649391</v>
       </c>
       <c r="C14">
-        <v>22.95870745663361</v>
+        <v>13.73710300919195</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>32.96650200064077</v>
+        <v>27.91807040342106</v>
       </c>
       <c r="F14">
-        <v>40.24653133656136</v>
+        <v>38.44255644505355</v>
       </c>
       <c r="G14">
-        <v>12.90016521343794</v>
+        <v>16.21678362781871</v>
       </c>
       <c r="H14">
-        <v>5.264990087817174</v>
+        <v>11.14688442058167</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.494338856730544</v>
+        <v>7.067879318527193</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.743630427379639</v>
+        <v>15.27554277962749</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.56094182600119</v>
+        <v>18.62472222631012</v>
       </c>
       <c r="C15">
-        <v>22.84214743464095</v>
+        <v>13.67404756869593</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>32.79375970414043</v>
+        <v>27.87056714491723</v>
       </c>
       <c r="F15">
-        <v>40.04186819005592</v>
+        <v>38.41019199576295</v>
       </c>
       <c r="G15">
-        <v>12.80742760073267</v>
+        <v>16.2363491626495</v>
       </c>
       <c r="H15">
-        <v>5.281417388026818</v>
+        <v>11.15534411868611</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.502902488269637</v>
+        <v>7.071027316096582</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.75027124695097</v>
+        <v>15.29091591078906</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.57007358545611</v>
+        <v>18.10385301961543</v>
       </c>
       <c r="C16">
-        <v>22.16338031110242</v>
+        <v>13.30657437917377</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>31.79265269252238</v>
+        <v>27.59817718966807</v>
       </c>
       <c r="F16">
-        <v>38.8649600242509</v>
+        <v>38.22791379346613</v>
       </c>
       <c r="G16">
-        <v>12.29174091616609</v>
+        <v>16.35273485647898</v>
       </c>
       <c r="H16">
-        <v>5.379389262049631</v>
+        <v>11.20466169712954</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.552560997026419</v>
+        <v>7.089354496688853</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.801338152214996</v>
+        <v>15.38082114648022</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.94720044978168</v>
+        <v>17.77631558978197</v>
       </c>
       <c r="C17">
-        <v>21.73732619666773</v>
+        <v>13.07570674465065</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>31.16850085910717</v>
+        <v>27.43100245401105</v>
       </c>
       <c r="F17">
-        <v>38.13939510605667</v>
+        <v>38.11898168602492</v>
       </c>
       <c r="G17">
-        <v>12.04196743580899</v>
+        <v>16.42789527688719</v>
       </c>
       <c r="H17">
-        <v>5.442716345706552</v>
+        <v>11.23566442127434</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.583536585646918</v>
+        <v>7.100854352527118</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.843690195809269</v>
+        <v>15.43758327022838</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.58339831380844</v>
+        <v>17.58499862921</v>
       </c>
       <c r="C18">
-        <v>21.48872251739325</v>
+        <v>12.94093493315004</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>30.80582632121691</v>
+        <v>27.33485242516778</v>
       </c>
       <c r="F18">
-        <v>37.72079047725148</v>
+        <v>38.05740566070807</v>
       </c>
       <c r="G18">
-        <v>11.92131619035859</v>
+        <v>16.47249104395633</v>
       </c>
       <c r="H18">
-        <v>5.480251919795457</v>
+        <v>11.25377118226864</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.601537649188729</v>
+        <v>7.107563262237865</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.87186823254398</v>
+        <v>15.47082033147828</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.45926687272152</v>
+        <v>17.51972092211977</v>
       </c>
       <c r="C19">
-        <v>21.40394013531268</v>
+        <v>12.8949644374341</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>30.6823994380313</v>
+        <v>27.30230141089027</v>
       </c>
       <c r="F19">
-        <v>37.5788425462062</v>
+        <v>38.03674392913594</v>
       </c>
       <c r="G19">
-        <v>11.88171691578041</v>
+        <v>16.48782333674291</v>
       </c>
       <c r="H19">
-        <v>5.493145144036162</v>
+        <v>11.25994901428419</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.607663940441447</v>
+        <v>7.109851028182594</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.882042550927521</v>
+        <v>15.48217480195636</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.01407934471876</v>
+        <v>17.81148569270758</v>
       </c>
       <c r="C20">
-        <v>21.78304765013312</v>
+        <v>13.10048856083172</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>31.2353236870938</v>
+        <v>27.4487987327267</v>
       </c>
       <c r="F20">
-        <v>38.21676599444069</v>
+        <v>38.13046641237759</v>
       </c>
       <c r="G20">
-        <v>12.06489047764374</v>
+        <v>16.41975262079321</v>
       </c>
       <c r="H20">
-        <v>5.435858444422402</v>
+        <v>11.23233568470298</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.580219993333575</v>
+        <v>7.099620396606672</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.838781319309058</v>
+        <v>15.43147984241297</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.81214738850975</v>
+        <v>18.75671632944149</v>
       </c>
       <c r="C21">
-        <v>23.01441011119279</v>
+        <v>13.76723097230872</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>33.04913911196122</v>
+        <v>27.94084545306014</v>
       </c>
       <c r="F21">
-        <v>40.34460041826915</v>
+        <v>38.45813186750284</v>
       </c>
       <c r="G21">
-        <v>12.94490800153906</v>
+        <v>16.2074774466506</v>
       </c>
       <c r="H21">
-        <v>5.257183465623929</v>
+        <v>11.14284260031383</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.490242830580573</v>
+        <v>7.06637484459033</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.740684308432486</v>
+        <v>15.26820300226234</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.93852491108611</v>
+        <v>19.34814572751013</v>
       </c>
       <c r="C22">
-        <v>23.78763763876389</v>
+        <v>14.18504535318349</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>34.2019664636344</v>
+        <v>28.26181259897508</v>
       </c>
       <c r="F22">
-        <v>41.72336677917093</v>
+        <v>38.68151967233556</v>
       </c>
       <c r="G22">
-        <v>13.59376064804955</v>
+        <v>16.08126349947098</v>
       </c>
       <c r="H22">
-        <v>5.151956073867339</v>
+        <v>11.08680250946396</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.433160069344388</v>
+        <v>7.045485239569565</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.715494259990249</v>
+        <v>15.16678052748925</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.34178801157414</v>
+        <v>19.03490959644645</v>
       </c>
       <c r="C23">
-        <v>23.37783187771106</v>
+        <v>13.96370342982238</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>33.58964780191373</v>
+        <v>28.09059369361841</v>
       </c>
       <c r="F23">
-        <v>40.9885904632143</v>
+        <v>38.56146644468441</v>
       </c>
       <c r="G23">
-        <v>13.24348265359913</v>
+        <v>16.14746304374765</v>
       </c>
       <c r="H23">
-        <v>5.206974117508745</v>
+        <v>11.11648800148096</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.463464247328976</v>
+        <v>7.056557864806395</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.725143163863228</v>
+        <v>15.22042555079974</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.98386116953962</v>
+        <v>17.79559466546606</v>
       </c>
       <c r="C24">
-        <v>21.76238837985957</v>
+        <v>13.08929106169666</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>31.20512505196652</v>
+        <v>27.44075314934927</v>
       </c>
       <c r="F24">
-        <v>38.18179117955999</v>
+        <v>38.12527089127835</v>
       </c>
       <c r="G24">
-        <v>12.05450453633496</v>
+        <v>16.42342960521927</v>
       </c>
       <c r="H24">
-        <v>5.438955405467483</v>
+        <v>11.23383972532758</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.581718825018173</v>
+        <v>7.100177964362302</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.840988750100358</v>
+        <v>15.43423732186263</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.22829753456632</v>
+        <v>16.34720345870164</v>
       </c>
       <c r="C25">
-        <v>19.88430156636048</v>
+        <v>12.07055566409732</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>28.49274667349512</v>
+        <v>26.74037063787305</v>
       </c>
       <c r="F25">
-        <v>35.10639132736919</v>
+        <v>37.69618828858803</v>
       </c>
       <c r="G25">
-        <v>11.30716315264397</v>
+        <v>16.77310466144584</v>
       </c>
       <c r="H25">
-        <v>5.731030013166259</v>
+        <v>11.37092921831264</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.716316608942942</v>
+        <v>7.150844197364274</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>8.109064720795157</v>
+        <v>15.68736396300553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_68/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.18689417704505</v>
+        <v>25.01388777257365</v>
       </c>
       <c r="C2">
-        <v>11.25757293631382</v>
+        <v>18.38523230584707</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.22868936680642</v>
+        <v>26.37673645996107</v>
       </c>
       <c r="F2">
-        <v>37.41752663735916</v>
+        <v>32.80800856382843</v>
       </c>
       <c r="G2">
-        <v>17.07343389154736</v>
+        <v>10.9924601253847</v>
       </c>
       <c r="H2">
-        <v>11.48091690534303</v>
+        <v>5.975126527899874</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.1912830727934</v>
+        <v>3.82121713958993</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.89290304640388</v>
+        <v>8.403788841353609</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.34360736476312</v>
+        <v>23.39621393558407</v>
       </c>
       <c r="C3">
-        <v>10.66888469173825</v>
+        <v>17.2975863954</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.88623601065564</v>
+        <v>24.87120405359628</v>
       </c>
       <c r="F3">
-        <v>37.25262696296107</v>
+        <v>31.23542810413051</v>
       </c>
       <c r="G3">
-        <v>17.30280405665209</v>
+        <v>10.91658573025773</v>
       </c>
       <c r="H3">
-        <v>11.56110944830529</v>
+        <v>6.1559602773706</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.220656048891803</v>
+        <v>3.895846412168415</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.04406747924275</v>
+        <v>8.652454482423222</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.79850449933102</v>
+        <v>22.344974106334</v>
       </c>
       <c r="C4">
-        <v>10.2895047978297</v>
+        <v>16.59490586227709</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.67871153912892</v>
+        <v>23.9130723233541</v>
       </c>
       <c r="F4">
-        <v>37.16338758619354</v>
+        <v>30.26538548614116</v>
       </c>
       <c r="G4">
-        <v>17.45608994382393</v>
+        <v>10.93208594108335</v>
       </c>
       <c r="H4">
-        <v>11.61313907350666</v>
+        <v>6.273873549588549</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.239665583287085</v>
+        <v>3.943398297771956</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.14271073150358</v>
+        <v>8.825818348357819</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.56964594329898</v>
+        <v>21.90197865998289</v>
       </c>
       <c r="C5">
-        <v>10.13052476259798</v>
+        <v>16.2999030602928</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.59492630203211</v>
+        <v>23.51445880267406</v>
       </c>
       <c r="F5">
-        <v>37.13006756944736</v>
+        <v>29.86948703689435</v>
       </c>
       <c r="G5">
-        <v>17.52164384547619</v>
+        <v>10.95294324426242</v>
       </c>
       <c r="H5">
-        <v>11.6350437222983</v>
+        <v>6.323562717885423</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.247657706113192</v>
+        <v>3.963209304281297</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.18437009530287</v>
+        <v>8.901204774236545</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.53124287543591</v>
+        <v>21.82753692624366</v>
       </c>
       <c r="C6">
-        <v>10.10386593520015</v>
+        <v>16.25039929028485</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.58106378570472</v>
+        <v>23.44778685965717</v>
       </c>
       <c r="F6">
-        <v>37.1247194196983</v>
+        <v>29.80372914343272</v>
       </c>
       <c r="G6">
-        <v>17.53271435032903</v>
+        <v>10.95725035405207</v>
       </c>
       <c r="H6">
-        <v>11.6387233910491</v>
+        <v>6.33191010318536</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.248999641189167</v>
+        <v>3.966525040192792</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.19137575602757</v>
+        <v>8.91399633075264</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.79544504566274</v>
+        <v>22.33905888101448</v>
       </c>
       <c r="C7">
-        <v>10.28737828433381</v>
+        <v>16.59096222156946</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.6775782914669</v>
+        <v>23.90772907482803</v>
       </c>
       <c r="F7">
-        <v>37.16292585830421</v>
+        <v>30.26004793137345</v>
       </c>
       <c r="G7">
-        <v>17.45696157608901</v>
+        <v>10.93230989286401</v>
       </c>
       <c r="H7">
-        <v>11.61343164383371</v>
+        <v>6.274537152050047</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.239772372750135</v>
+        <v>3.943663723359808</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.14326665208432</v>
+        <v>8.826816420583574</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.90187737512548</v>
+        <v>24.4681269953109</v>
       </c>
       <c r="C8">
-        <v>11.05838213466143</v>
+        <v>18.01750401913156</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>26.11009814225543</v>
+        <v>25.8647931747515</v>
       </c>
       <c r="F8">
-        <v>37.35819359917984</v>
+        <v>32.26700222452188</v>
       </c>
       <c r="G8">
-        <v>17.14991052354051</v>
+        <v>10.95282722573236</v>
       </c>
       <c r="H8">
-        <v>11.50798818809961</v>
+        <v>6.035990453063078</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.201208974205171</v>
+        <v>3.846589215224187</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.94381255953992</v>
+        <v>8.484942886196949</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.84984806042555</v>
+        <v>28.18514280555342</v>
       </c>
       <c r="C9">
-        <v>12.4236519468448</v>
+        <v>20.53505234001023</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.97591249488998</v>
+        <v>29.42510372329497</v>
       </c>
       <c r="F9">
-        <v>37.83503916218888</v>
+        <v>36.14826122643905</v>
       </c>
       <c r="G9">
-        <v>16.64853469311452</v>
+        <v>11.52168561062169</v>
       </c>
       <c r="H9">
-        <v>11.32334561968047</v>
+        <v>5.627720605275734</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.133292071125146</v>
+        <v>3.670062912261977</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.59910914520982</v>
+        <v>8.001970022876806</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.14082974772012</v>
+        <v>30.64039869684474</v>
       </c>
       <c r="C10">
-        <v>13.3326482195531</v>
+        <v>22.21151524770348</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>27.61725133761335</v>
+        <v>31.86337422874039</v>
       </c>
       <c r="F10">
-        <v>38.24048868110859</v>
+        <v>38.94757603929612</v>
       </c>
       <c r="G10">
-        <v>16.34434477612756</v>
+        <v>12.32691812347726</v>
       </c>
       <c r="H10">
-        <v>11.20116131349252</v>
+        <v>5.372319004933682</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.088055076728181</v>
+        <v>3.54905172828303</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.37442414741553</v>
+        <v>7.797039767518433</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.69699775065682</v>
+        <v>31.6984868484433</v>
       </c>
       <c r="C11">
-        <v>13.72506867989328</v>
+        <v>22.93645941032186</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.90898719165797</v>
+        <v>32.9335116065343</v>
       </c>
       <c r="F11">
-        <v>38.43635515409575</v>
+        <v>40.20740932311222</v>
       </c>
       <c r="G11">
-        <v>16.22050853747436</v>
+        <v>12.88237119036958</v>
       </c>
       <c r="H11">
-        <v>11.14849892848347</v>
+        <v>5.26811608014899</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.068480201354355</v>
+        <v>3.495974198133541</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.27847558138573</v>
+        <v>7.744848378198592</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.90309079419274</v>
+        <v>32.09078813401662</v>
       </c>
       <c r="C12">
-        <v>13.87059425215952</v>
+        <v>23.20556702995215</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>28.01936326581394</v>
+        <v>33.33314881555646</v>
       </c>
       <c r="F12">
-        <v>38.51211533628821</v>
+        <v>40.68243720993338</v>
       </c>
       <c r="G12">
-        <v>16.17575814343245</v>
+        <v>13.10052439821741</v>
       </c>
       <c r="H12">
-        <v>11.12897692526754</v>
+        <v>5.230614469604054</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.061211475862541</v>
+        <v>3.476169175210399</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.24304868760294</v>
+        <v>7.731707266309042</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.85890637102642</v>
+        <v>32.00667002891008</v>
       </c>
       <c r="C13">
-        <v>13.83939009151336</v>
+        <v>23.14785039028652</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.99559766607008</v>
+        <v>33.24732816792501</v>
       </c>
       <c r="F13">
-        <v>38.49572920283447</v>
+        <v>40.58022291298794</v>
       </c>
       <c r="G13">
-        <v>16.18529975176587</v>
+        <v>13.05320208552471</v>
       </c>
       <c r="H13">
-        <v>11.13316264960053</v>
+        <v>5.238599908629423</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.062770535353713</v>
+        <v>3.480421249328284</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.2506380711799</v>
+        <v>7.73423153181059</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.71404385649391</v>
+        <v>31.73092902185887</v>
       </c>
       <c r="C14">
-        <v>13.73710300919195</v>
+        <v>22.95870745663366</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27.91807040342106</v>
+        <v>32.96650200064081</v>
       </c>
       <c r="F14">
-        <v>38.44255644505355</v>
+        <v>40.2465313365614</v>
       </c>
       <c r="G14">
-        <v>16.21678362781871</v>
+        <v>12.90016521343791</v>
       </c>
       <c r="H14">
-        <v>11.14688442058167</v>
+        <v>5.264990087817174</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.067879318527193</v>
+        <v>3.494338856730548</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.27554277962749</v>
+        <v>7.743630427379629</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.62472222631012</v>
+        <v>31.56094182600118</v>
       </c>
       <c r="C15">
-        <v>13.67404756869593</v>
+        <v>22.84214743464091</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>27.87056714491723</v>
+        <v>32.79375970414043</v>
       </c>
       <c r="F15">
-        <v>38.41019199576295</v>
+        <v>40.04186819005591</v>
       </c>
       <c r="G15">
-        <v>16.2363491626495</v>
+        <v>12.80742760073267</v>
       </c>
       <c r="H15">
-        <v>11.15534411868611</v>
+        <v>5.281417388026823</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.071027316096582</v>
+        <v>3.502902488269668</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.29091591078906</v>
+        <v>7.750271246950975</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.10385301961543</v>
+        <v>30.57007358545616</v>
       </c>
       <c r="C16">
-        <v>13.30657437917377</v>
+        <v>22.16338031110243</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>27.59817718966807</v>
+        <v>31.79265269252238</v>
       </c>
       <c r="F16">
-        <v>38.22791379346613</v>
+        <v>38.8649600242509</v>
       </c>
       <c r="G16">
-        <v>16.35273485647898</v>
+        <v>12.29174091616609</v>
       </c>
       <c r="H16">
-        <v>11.20466169712954</v>
+        <v>5.379389262049631</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.089354496688853</v>
+        <v>3.552560997026387</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.38082114648022</v>
+        <v>7.801338152214988</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.77631558978197</v>
+        <v>29.94720044978168</v>
       </c>
       <c r="C17">
-        <v>13.07570674465065</v>
+        <v>21.7373261966677</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>27.43100245401105</v>
+        <v>31.16850085910713</v>
       </c>
       <c r="F17">
-        <v>38.11898168602492</v>
+        <v>38.13939510605667</v>
       </c>
       <c r="G17">
-        <v>16.42789527688719</v>
+        <v>12.041967435809</v>
       </c>
       <c r="H17">
-        <v>11.23566442127434</v>
+        <v>5.442716345706556</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.100854352527118</v>
+        <v>3.583536585646917</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.43758327022838</v>
+        <v>7.843690195809313</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.58499862921</v>
+        <v>29.58339831380846</v>
       </c>
       <c r="C18">
-        <v>12.94093493315004</v>
+        <v>21.48872251739327</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>27.33485242516778</v>
+        <v>30.80582632121694</v>
       </c>
       <c r="F18">
-        <v>38.05740566070807</v>
+        <v>37.72079047725148</v>
       </c>
       <c r="G18">
-        <v>16.47249104395633</v>
+        <v>11.92131619035854</v>
       </c>
       <c r="H18">
-        <v>11.25377118226864</v>
+        <v>5.480251919795453</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.107563262237865</v>
+        <v>3.601537649188725</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.47082033147828</v>
+        <v>7.871868232543891</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.51972092211977</v>
+        <v>29.45926687272157</v>
       </c>
       <c r="C19">
-        <v>12.8949644374341</v>
+        <v>21.40394013531266</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27.30230141089027</v>
+        <v>30.68239943803129</v>
       </c>
       <c r="F19">
-        <v>38.03674392913594</v>
+        <v>37.57884254620618</v>
       </c>
       <c r="G19">
-        <v>16.48782333674291</v>
+        <v>11.88171691578045</v>
       </c>
       <c r="H19">
-        <v>11.25994901428419</v>
+        <v>5.493145144036222</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.109851028182594</v>
+        <v>3.607663940441418</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.48217480195636</v>
+        <v>7.882042550927479</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.81148569270758</v>
+        <v>30.01407934471882</v>
       </c>
       <c r="C20">
-        <v>13.10048856083172</v>
+        <v>21.78304765013308</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27.4487987327267</v>
+        <v>31.23532368709383</v>
       </c>
       <c r="F20">
-        <v>38.13046641237759</v>
+        <v>38.21676599444069</v>
       </c>
       <c r="G20">
-        <v>16.41975262079321</v>
+        <v>12.06489047764369</v>
       </c>
       <c r="H20">
-        <v>11.23233568470298</v>
+        <v>5.435858444422345</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.099620396606672</v>
+        <v>3.580219993333513</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.43147984241297</v>
+        <v>7.838781319308993</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.75671632944149</v>
+        <v>31.81214738850975</v>
       </c>
       <c r="C21">
-        <v>13.76723097230872</v>
+        <v>23.01441011119287</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27.94084545306014</v>
+        <v>33.04913911196123</v>
       </c>
       <c r="F21">
-        <v>38.45813186750284</v>
+        <v>40.34460041826915</v>
       </c>
       <c r="G21">
-        <v>16.2074774466506</v>
+        <v>12.94490800153897</v>
       </c>
       <c r="H21">
-        <v>11.14284260031383</v>
+        <v>5.257183465623976</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.06637484459033</v>
+        <v>3.490242830580544</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.26820300226234</v>
+        <v>7.740684308432493</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.34814572751013</v>
+        <v>32.93852491108611</v>
       </c>
       <c r="C22">
-        <v>14.18504535318349</v>
+        <v>23.78763763876389</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.26181259897508</v>
+        <v>34.20196646363434</v>
       </c>
       <c r="F22">
-        <v>38.68151967233556</v>
+        <v>41.72336677917088</v>
       </c>
       <c r="G22">
-        <v>16.08126349947098</v>
+        <v>13.59376064804957</v>
       </c>
       <c r="H22">
-        <v>11.08680250946396</v>
+        <v>5.151956073867351</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.045485239569565</v>
+        <v>3.433160069344362</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.16678052748925</v>
+        <v>7.715494259990272</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.03490959644645</v>
+        <v>32.34178801157412</v>
       </c>
       <c r="C23">
-        <v>13.96370342982238</v>
+        <v>23.37783187771108</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>28.09059369361841</v>
+        <v>33.58964780191371</v>
       </c>
       <c r="F23">
-        <v>38.56146644468441</v>
+        <v>40.98859046321429</v>
       </c>
       <c r="G23">
-        <v>16.14746304374765</v>
+        <v>13.24348265359919</v>
       </c>
       <c r="H23">
-        <v>11.11648800148096</v>
+        <v>5.206974117508833</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.056557864806395</v>
+        <v>3.463464247329006</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.22042555079974</v>
+        <v>7.72514316386327</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.79559466546606</v>
+        <v>29.98386116953964</v>
       </c>
       <c r="C24">
-        <v>13.08929106169666</v>
+        <v>21.76238837985962</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>27.44075314934927</v>
+        <v>31.20512505196653</v>
       </c>
       <c r="F24">
-        <v>38.12527089127835</v>
+        <v>38.18179117955996</v>
       </c>
       <c r="G24">
-        <v>16.42342960521927</v>
+        <v>12.05450453633492</v>
       </c>
       <c r="H24">
-        <v>11.23383972532758</v>
+        <v>5.438955405467477</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.100177964362302</v>
+        <v>3.581718825018205</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.43423732186263</v>
+        <v>7.84098875010031</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.34720345870164</v>
+        <v>27.22829753456631</v>
       </c>
       <c r="C25">
-        <v>12.07055566409732</v>
+        <v>19.8843015663604</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>26.74037063787305</v>
+        <v>28.49274667349507</v>
       </c>
       <c r="F25">
-        <v>37.69618828858803</v>
+        <v>35.1063913273692</v>
       </c>
       <c r="G25">
-        <v>16.77310466144584</v>
+        <v>11.30716315264401</v>
       </c>
       <c r="H25">
-        <v>11.37092921831264</v>
+        <v>5.731030013166385</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.150844197364274</v>
+        <v>3.716316608942914</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.68736396300553</v>
+        <v>8.109064720795205</v>
       </c>
     </row>
   </sheetData>
